--- a/Excel/Day_3/Mathematical Functions.xlsx
+++ b/Excel/Day_3/Mathematical Functions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0DC28D-EC2D-4ACF-A353-A07B00C79900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EC76B3-CE5F-45EA-9F1C-3B8290576607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUM" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
   <si>
     <t>SUM</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>LOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SUMPRODUCT(M5:O5,$M$11:$O$11)</t>
+  </si>
+  <si>
+    <t>Student 7</t>
+  </si>
+  <si>
+    <t>Student 8</t>
   </si>
 </sst>
 </file>
@@ -315,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -436,12 +445,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -516,6 +549,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -573,9 +610,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1436,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1460,10 +1496,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1471,24 +1507,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1497,13 +1533,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1526,11 +1562,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1547,17 +1583,17 @@
       <c r="O5" s="25">
         <v>81</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="34">
         <f>SUM(M5:O5)</f>
         <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="L6" s="25" t="s">
         <v>31</v>
       </c>
@@ -1570,17 +1606,17 @@
       <c r="O6" s="25">
         <v>75</v>
       </c>
-      <c r="P6" s="53">
-        <f t="shared" ref="P6:P9" si="0">SUM(M6:O6)</f>
+      <c r="P6" s="34">
+        <f>SUM(M6:O6)</f>
         <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
@@ -1593,17 +1629,17 @@
       <c r="O7" s="25">
         <v>90</v>
       </c>
-      <c r="P7" s="53">
-        <f t="shared" si="0"/>
+      <c r="P7" s="34">
+        <f t="shared" ref="P7:P9" si="0">SUM(M7:O7)</f>
         <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="L8" s="25" t="s">
         <v>33</v>
       </c>
@@ -1616,17 +1652,17 @@
       <c r="O8" s="25">
         <v>85</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="34">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="L9" s="25" t="s">
         <v>34</v>
       </c>
@@ -1639,25 +1675,25 @@
       <c r="O9" s="25">
         <v>55</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="34">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -1668,64 +1704,64 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1750,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="140" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1774,10 +1810,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1785,24 +1821,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1811,13 +1847,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1837,11 +1873,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1860,11 +1896,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="L6" s="25" t="s">
         <v>31</v>
       </c>
@@ -1879,11 +1915,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
@@ -1898,11 +1934,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="L8" s="25" t="s">
         <v>33</v>
       </c>
@@ -1917,11 +1953,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="L9" s="25" t="s">
         <v>34</v>
       </c>
@@ -1936,34 +1972,34 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="L10" s="54" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="L10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="36">
         <f>MIN(M5:M9)</f>
         <v>45</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="36">
         <f t="shared" ref="N10:O10" si="0">MIN(N5:N9)</f>
         <v>53</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="36">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -1974,64 +2010,64 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2056,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2080,10 +2116,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2091,24 +2127,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2117,13 +2153,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2143,11 +2179,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2166,11 +2202,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="L6" s="25" t="s">
         <v>31</v>
       </c>
@@ -2185,11 +2221,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
@@ -2204,11 +2240,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="L8" s="25" t="s">
         <v>33</v>
       </c>
@@ -2223,11 +2259,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="L9" s="25" t="s">
         <v>34</v>
       </c>
@@ -2242,34 +2278,34 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="L10" s="54" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="L10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="36">
         <f>MAX(M5:M9)</f>
         <v>99</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="36">
         <f t="shared" ref="N10:O10" si="0">MAX(N5:N9)</f>
         <v>99</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="36">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2280,64 +2316,64 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2362,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H2" zoomScale="144" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2386,10 +2422,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2397,24 +2433,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2423,13 +2459,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2455,11 +2491,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2486,11 +2522,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="L6" s="25" t="s">
         <v>31</v>
       </c>
@@ -2513,11 +2549,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
@@ -2540,11 +2576,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="L8" s="25" t="s">
         <v>33</v>
       </c>
@@ -2567,11 +2603,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="L9" s="25" t="s">
         <v>34</v>
       </c>
@@ -2594,19 +2630,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2617,64 +2653,64 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2699,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G4" zoomScale="152" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2736,24 +2772,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2762,13 +2798,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2791,11 +2827,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2812,17 +2848,20 @@
       <c r="O5" s="25">
         <v>81</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="34">
         <f>SUMPRODUCT(M5:O5,$M$11:$O$11)</f>
         <v>378.3</v>
       </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="L6" s="25" t="s">
         <v>31</v>
       </c>
@@ -2835,17 +2874,17 @@
       <c r="O6" s="25">
         <v>75</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="34">
         <f t="shared" ref="P6:P9" si="0">SUMPRODUCT(M6:O6,$M$11:$O$11)</f>
         <v>280.5</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
@@ -2858,17 +2897,17 @@
       <c r="O7" s="25">
         <v>90</v>
       </c>
-      <c r="P7" s="53">
+      <c r="P7" s="34">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="L8" s="25" t="s">
         <v>33</v>
       </c>
@@ -2881,17 +2920,17 @@
       <c r="O8" s="25">
         <v>85</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="34">
         <f t="shared" si="0"/>
         <v>407.5</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="L9" s="25" t="s">
         <v>34</v>
       </c>
@@ -2904,17 +2943,17 @@
       <c r="O9" s="25">
         <v>55</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="34">
         <f t="shared" si="0"/>
         <v>221.5</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
@@ -2922,11 +2961,11 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="L11" s="27" t="s">
         <v>28</v>
       </c>
@@ -2955,7 +2994,10 @@
     <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C13" s="13"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="M13" s="28">
+        <f>M5*M11+N5*N11+O5*O11</f>
+        <v>378.3</v>
+      </c>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="21"/>
@@ -2963,70 +3005,70 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
       <c r="L14" s="22"/>
       <c r="M14" s="23"/>
       <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="L15" s="21"/>
       <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
       <c r="L16" s="21"/>
       <c r="M16" s="23"/>
     </row>
     <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="L17" s="21"/>
       <c r="M17" s="23"/>
     </row>
     <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="L18" s="21"/>
       <c r="M18" s="23"/>
     </row>
     <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -3035,11 +3077,11 @@
       <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3063,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3098,24 +3140,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -3124,13 +3166,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -3151,11 +3193,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -3175,11 +3217,11 @@
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="L6" s="25" t="s">
         <v>31</v>
       </c>
@@ -3195,11 +3237,11 @@
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
@@ -3215,11 +3257,11 @@
       <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="L8" s="25" t="s">
         <v>33</v>
       </c>
@@ -3235,11 +3277,11 @@
       <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="L9" s="25" t="s">
         <v>34</v>
       </c>
@@ -3255,11 +3297,11 @@
       <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
@@ -3268,11 +3310,11 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="L11" s="31" t="s">
         <v>37</v>
       </c>
@@ -3304,37 +3346,40 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
       <c r="L14" s="25" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="25">
         <f ca="1">RAND()</f>
-        <v>6.2258251348558669E-2</v>
+        <v>0.16982981942800812</v>
       </c>
       <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="O14" s="26">
+        <f ca="1">RAND()</f>
+        <v>0.28641584793805019</v>
+      </c>
       <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="L15" s="25" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="25">
         <f t="shared" ref="M15:M18" ca="1" si="0">RAND()</f>
-        <v>0.20027466216470424</v>
+        <v>0.91752753610105275</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -3342,62 +3387,66 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
       <c r="L16" s="25" t="s">
         <v>32</v>
       </c>
       <c r="M16" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57384322184128156</v>
+        <v>0.8639877668813678</v>
       </c>
       <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
+      <c r="O16" s="26">
+        <v>86</v>
+      </c>
       <c r="P16" s="26"/>
     </row>
     <row r="17" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="L17" s="25" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40252556332656442</v>
+        <v>0.3126594591555697</v>
       </c>
       <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="O17" s="26">
+        <v>89</v>
+      </c>
       <c r="P17" s="26"/>
     </row>
     <row r="18" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="L18" s="25" t="s">
         <v>34</v>
       </c>
       <c r="M18" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9126540848603617</v>
+        <v>0.79313613457147314</v>
       </c>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
     </row>
     <row r="19" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
@@ -3405,11 +3454,11 @@
       <c r="P19" s="26"/>
     </row>
     <row r="20" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
@@ -3417,11 +3466,11 @@
       <c r="P20" s="26"/>
     </row>
     <row r="21" spans="3:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
@@ -3451,7 +3500,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3485,24 +3534,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -3511,13 +3560,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -3537,11 +3586,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -3560,11 +3609,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="L6" s="25" t="s">
         <v>31</v>
       </c>
@@ -3579,11 +3628,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
@@ -3598,11 +3647,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="L8" s="25" t="s">
         <v>33</v>
       </c>
@@ -3617,11 +3666,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="L9" s="25" t="s">
         <v>34</v>
       </c>
@@ -3636,120 +3685,149 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="L10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="25">
         <f ca="1">RANDBETWEEN(35,100)</f>
-        <v>52</v>
-      </c>
-      <c r="N10" s="26">
-        <f t="shared" ref="N10:O10" ca="1" si="0">RANDBETWEEN(35,100)</f>
-        <v>35</v>
-      </c>
-      <c r="O10" s="26">
+        <v>47</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" ref="N10:O11" ca="1" si="0">RANDBETWEEN(35,100)</f>
+        <v>73</v>
+      </c>
+      <c r="O10" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="L11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="57">
+        <f ca="1">RANDBETWEEN(35,100)</f>
+        <v>43</v>
+      </c>
+      <c r="N11" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="O11" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="L12" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="34">
+        <f ca="1">RANDBETWEEN(30,55)</f>
+        <v>53</v>
+      </c>
+      <c r="N12" s="34">
+        <f t="shared" ref="N12:O12" ca="1" si="1">RANDBETWEEN(30,55)</f>
+        <v>30</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C13" s="13"/>
+      <c r="M13">
+        <v>90</v>
+      </c>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3773,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3808,24 +3886,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
